--- a/bots/crawl_ch/output/bread_coop_2023-02-16.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2023-02-16.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -819,7 +819,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -892,7 +892,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1103,7 +1103,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1752,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2036,7 +2036,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2178,7 +2178,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2385,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3103,7 +3103,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3176,7 +3176,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3245,7 +3245,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3594,7 +3594,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3667,7 +3667,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -3955,7 +3955,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4028,7 +4028,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4239,7 +4239,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4527,7 +4527,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4600,7 +4600,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4673,7 +4673,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4815,7 +4815,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4888,7 +4888,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -4957,7 +4957,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5099,7 +5099,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5237,7 +5237,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5375,7 +5375,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5444,7 +5444,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5659,7 +5659,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5732,7 +5732,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5874,7 +5874,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6016,7 +6016,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6154,7 +6154,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6292,7 +6292,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6507,7 +6507,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6722,7 +6722,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6791,7 +6791,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7002,7 +7002,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7075,7 +7075,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7148,7 +7148,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7217,7 +7217,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7286,7 +7286,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7359,7 +7359,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7501,7 +7501,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7570,7 +7570,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7639,7 +7639,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7712,7 +7712,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -7785,45 +7785,45 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>3541890</t>
+          <t>4886668</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm</t>
+          <t>Dar-Vida Cracker Nature</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-naturaplan-bio-pizzateig-rund-ausgewallt-28cm/p/3541890</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="E105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1.03/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7843,60 +7843,60 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm 3.40 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Nature 33% ab 3 Aktion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N105" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>4886668</t>
+          <t>3541890</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-nature/p/4886668</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-naturaplan-bio-pizzateig-rund-ausgewallt-28cm/p/3541890</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="E106" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.03/100g</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -7906,7 +7906,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -7916,22 +7916,22 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Nature 33% ab 3 Aktion 3.60 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Pizzateig rund ausgewallt Ø28cm 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8146,7 +8146,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8219,7 +8219,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8426,7 +8426,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -8779,31 +8779,31 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6589691</t>
+          <t>3690878</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenbrot</t>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/baeckerei/prix-garantie-roggenbrot/p/6589691</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E119" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8812,12 +8812,12 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>0.44/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I119" t="inlineStr">
@@ -8827,7 +8827,7 @@
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
@@ -8837,46 +8837,42 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>Prix Garantie Roggenbrot 2.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N119" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>6628846</t>
+          <t>6589691</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Zitronencake</t>
+          <t>Prix Garantie Roggenbrot</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
+          <t>/de/lebensmittel/brot-backwaren/baeckerei/prix-garantie-roggenbrot/p/6589691</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E120" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
@@ -8885,12 +8881,12 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>0.95/100g</t>
+          <t>0.44/100g</t>
         </is>
       </c>
       <c r="I120" t="inlineStr">
@@ -8900,7 +8896,7 @@
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
@@ -8910,39 +8906,43 @@
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'baeckerei']</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>Zitronencake 6.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N120" t="inlineStr"/>
+          <t>Prix Garantie Roggenbrot 2.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>3690878</t>
+          <t>6628846</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse</t>
+          <t>Zitronencake</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/fine-food-knaeckebrot-mit-kuerbiskernen-kaese/p/3690878</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/zitronencake/p/6628846</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E121" t="n">
         <v>5</v>
@@ -8954,12 +8954,12 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>0.95/100g</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -8979,18 +8979,18 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>Fine Food Knäckebrot mit Kürbiskernen &amp;amp; Käse 3.95 Schweizer Franken</t>
+          <t>Zitronencake - Online kein Bestand 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9063,7 +9063,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9132,7 +9132,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9274,7 +9274,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9416,7 +9416,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9558,7 +9558,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9769,7 +9769,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9911,7 +9911,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -9980,7 +9980,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10264,7 +10264,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10337,7 +10337,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10410,7 +10410,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10483,7 +10483,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10625,7 +10625,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10698,7 +10698,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10771,7 +10771,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10840,7 +10840,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10909,7 +10909,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -10978,7 +10978,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11047,7 +11047,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11120,7 +11120,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11262,7 +11262,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11335,7 +11335,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11404,7 +11404,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11477,7 +11477,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11688,7 +11688,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11826,7 +11826,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11899,7 +11899,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -11972,45 +11972,45 @@
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>5719276</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E164" t="n">
         <v>5</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>2.15/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -12020,7 +12020,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>2.15</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -12030,60 +12030,56 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pandorino 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>6117087</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E165" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -12093,7 +12089,7 @@
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -12103,56 +12099,60 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>Pandorino 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N165" t="inlineStr"/>
+          <t>Old El Paso Tortilla glutenfrei 6 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N165" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>6117087</t>
+          <t>5719276</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-glutenfrei-6-stueck/p/6117087</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/dar-vida-cracker-chia-quinoa/p/5719276</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12172,22 +12172,22 @@
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>Old El Paso Tortilla glutenfrei 6 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Chia &amp;amp; Quinoa 33% ab 3 Aktion 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>['gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12256,7 +12256,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12329,28 +12329,28 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>3504615</t>
+          <t>6338742</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm</t>
+          <t>Country Cracker Nature Stange</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature-stange/p/6338742</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E169" t="n">
         <v>4.5</v>
@@ -12362,12 +12362,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.16/100g</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -12387,39 +12387,39 @@
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
+          <t>Country Cracker Nature Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>6338742</t>
+          <t>4886666</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Country Cracker Nature Stange</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-nature-stange/p/6338742</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="E170" t="n">
         <v>4.5</v>
@@ -12431,12 +12431,12 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>1.16/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -12446,7 +12446,7 @@
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -12461,51 +12461,51 @@
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>Country Cracker Nature Stange 3.30 Schweizer Franken</t>
+          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>4886666</t>
+          <t>4886676</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g</t>
+          <t>Dar-Vida Cracker Leinsamen</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/naturaplan-bio-cracker-dinkel-5x41g/p/4886666</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E171" t="n">
         <v>4.5</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>DAR-VIDA</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -12515,7 +12515,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -12530,51 +12530,51 @@
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Cracker Dinkel 5x41g 3.75 Schweizer Franken</t>
+          <t>Dar-Vida Cracker Leinsamen 33% ab 3 Aktion 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>4886676</t>
+          <t>3360446</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen</t>
+          <t>Old El Paso Maistortillas 8 Stück</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/dar-vida-cracker-leinsamen/p/4886676</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E172" t="n">
         <v>4.5</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>DAR-VIDA</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -12594,56 +12594,56 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>Dar-Vida Cracker Leinsamen 33% ab 3 Aktion 3.80 Schweizer Franken</t>
+          <t>Old El Paso Maistortillas 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>3360446</t>
+          <t>3504615</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück</t>
+          <t>Betty Bossi Pastateig 2x16x56cm</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-pastateig-2x16x56cm/p/3504615</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E173" t="n">
         <v>4.5</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -12653,7 +12653,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -12663,18 +12663,18 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Pastateig 2x16x56cm 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12743,7 +12743,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12885,7 +12885,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -12954,7 +12954,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13023,7 +13023,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13096,7 +13096,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13165,7 +13165,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13238,7 +13238,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13311,7 +13311,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13384,7 +13384,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13453,7 +13453,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13524,7 +13524,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13666,7 +13666,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13735,7 +13735,7 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13808,7 +13808,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -13950,7 +13950,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14019,7 +14019,7 @@
       <c r="N192" t="inlineStr"/>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14088,7 +14088,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14157,7 +14157,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14230,7 +14230,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14299,45 +14299,45 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>6723241</t>
+          <t>4849123</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E197" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>6.50</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>2.53/100g</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -14347,7 +14347,7 @@
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -14357,60 +14357,60 @@
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 20% ab 2 Aktion 6.50 Schweizer Franken</t>
+          <t>Schär Crackers Pocket glutenfrei 3x50g 3.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>['vegetarian', 'gluten_free']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>4849123</t>
+          <t>6723241</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/schaer-crackers-pocket-glutenfrei-3x50g/p/4849123</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-xl-glutenfree-4-stueck/p/6723241</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="E198" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>6.50</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>2.53/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -14420,7 +14420,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -14430,22 +14430,22 @@
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>Schär Crackers Pocket glutenfrei 3x50g 3.80 Schweizer Franken</t>
+          <t>Old el Paso Tortilla XL Glutenfree 4 Stück 20% ab 2 Aktion 6.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N198" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14514,7 +14514,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14587,7 +14587,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -14656,45 +14656,45 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>6345667</t>
+          <t>3909255</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread</t>
+          <t>Schär Knusperbrot glutenfrei</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E202" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>1.80/100g</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -14714,60 +14714,60 @@
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
+          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N202" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['gluten_free', 'lactose_free']</t>
         </is>
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>3909255</t>
+          <t>6345667</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei</t>
+          <t>Indian Delight Plain Naan Bread</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-glutenfrei/p/3909255</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-plain-naan-bread/p/6345667</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E203" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>1.80/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -14777,7 +14777,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -14787,60 +14787,58 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot glutenfrei 2.70 Schweizer Franken</t>
+          <t>Indian Delight Plain Naan Bread 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N203" t="inlineStr">
         <is>
-          <t>['gluten_free', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>7028476</t>
+          <t>3431133</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie</t>
+          <t>Betty Bossi Vogelnestli 2x  100g</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
-        </is>
-      </c>
-      <c r="D204" t="n">
-        <v>2</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr"/>
       <c r="E204" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -14850,7 +14848,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -14860,44 +14858,42 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>3431133</t>
+          <t>6564543</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g</t>
+          <t>Country Cracker Käse</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-vogelnestli/p/3431133</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>5</v>
+      </c>
       <c r="E205" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -14906,12 +14902,12 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>1.58/100g</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -14921,7 +14917,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -14931,56 +14927,56 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>Betty Bossi Vogelnestli 2x  100g 4.60 Schweizer Franken</t>
+          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6564543</t>
+          <t>7028476</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Country Cracker Käse</t>
+          <t>Le Pain des fleurs Bio Kastanie</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-kaese/p/6564543</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/le-pain-des-fleurs-bio-kastanie/p/7028476</t>
         </is>
       </c>
       <c r="D206" t="n">
+        <v>2</v>
+      </c>
+      <c r="E206" t="n">
         <v>5</v>
       </c>
-      <c r="E206" t="n">
-        <v>4</v>
-      </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>1.58/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -14990,7 +14986,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15005,13 +15001,17 @@
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>Country Cracker Käse 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr"/>
+          <t>Le Pain des fleurs Bio Kastanie 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15084,7 +15084,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15157,7 +15157,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15230,7 +15230,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15299,7 +15299,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15368,7 +15368,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15437,7 +15437,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15510,7 +15510,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15579,7 +15579,7 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15652,7 +15652,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15721,7 +15721,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -15794,45 +15794,45 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>3938007</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>St Michel Madeleines</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E218" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
@@ -15842,7 +15842,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -15852,56 +15852,56 @@
       </c>
       <c r="L218" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M218" t="inlineStr">
         <is>
-          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N218" t="inlineStr"/>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>6348879</t>
+          <t>3938007</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
+          <t>St Michel Madeleines</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/st-michel-madeleines/p/3938007</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E219" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
@@ -15911,7 +15911,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -15921,60 +15921,56 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 20% ab 2 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N219" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St Michel Madeleines 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>6348879</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-mit-olivenoel-rund-ausgewallt-24cm/p/6348879</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E220" t="n">
         <v>4</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
@@ -15984,7 +15980,7 @@
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
@@ -15994,18 +15990,22 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N220" t="inlineStr"/>
+          <t>Buitoni Pizzateig mit Olivenöl Rund Ausgewallt Ø24cm 20% ab 2 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16074,7 +16074,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16141,7 +16141,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16214,7 +16214,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16283,7 +16283,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16356,7 +16356,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16423,7 +16423,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16492,7 +16492,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16561,7 +16561,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16630,7 +16630,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16699,7 +16699,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16772,7 +16772,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16845,7 +16845,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16914,7 +16914,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -16987,7 +16987,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17056,7 +17056,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17125,7 +17125,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17198,45 +17198,45 @@
       </c>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>4944640</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Schär Knusperbrot dunkel glutenfrei</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E238" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>2.36/100g</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
@@ -17246,7 +17246,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -17256,56 +17256,60 @@
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M238" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N238" t="inlineStr"/>
+          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>4944640</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/schaer-knusperbrot-dunkel-glutenfrei/p/4944640</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E239" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>2.36/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -17315,7 +17319,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -17325,22 +17329,18 @@
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M239" t="inlineStr">
         <is>
-          <t>Schär Knusperbrot dunkel glutenfrei 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17478,7 +17478,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17547,7 +17547,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17616,7 +17616,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17683,45 +17683,45 @@
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>6629343</t>
+          <t>6150311</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Schokoladen Cake</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E245" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>6.20</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>0.89/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -17746,51 +17746,51 @@
       </c>
       <c r="M245" t="inlineStr">
         <is>
-          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
+          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>6150311</t>
+          <t>6629343</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück</t>
+          <t>Schokoladen Cake</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-doonuts-mit-schokolade-ueberzogen-6-stueck/p/6150311</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/schokoladen-cake/p/6629343</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E246" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.20</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>0.89/100g</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -17815,13 +17815,13 @@
       </c>
       <c r="M246" t="inlineStr">
         <is>
-          <t>St.Michel Doonuts mit Schokolade überzogen 6 Stück 2.95 Schweizer Franken</t>
+          <t>Schokoladen Cake 6.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -17892,31 +17892,29 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>6387361</t>
+          <t>6739419</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis</t>
+          <t>Betty Bossi Pfaffenhut 2x  100g</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
-        </is>
-      </c>
-      <c r="D248" t="n">
-        <v>7</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr"/>
       <c r="E248" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -17925,12 +17923,12 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>2.44/100g</t>
+          <t>2.30/100g</t>
         </is>
       </c>
       <c r="I248" t="inlineStr">
@@ -17940,7 +17938,7 @@
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
@@ -17950,44 +17948,42 @@
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M248" t="inlineStr">
         <is>
-          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>6739419</t>
+          <t>6387361</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g</t>
+          <t>Karma Snack Schwarzer Reis</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/betty-bossi-pfaffenhut/p/6739419</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-snack-schwarzer-reis/p/6387361</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>7</v>
+      </c>
       <c r="E249" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -17996,12 +17992,12 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>2.30/100g</t>
+          <t>2.44/100g</t>
         </is>
       </c>
       <c r="I249" t="inlineStr">
@@ -18011,7 +18007,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18021,18 +18017,22 @@
       </c>
       <c r="L249" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>Betty Bossi Pfaffenhut 2x  100g 4.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N249" t="inlineStr"/>
+          <t>Karma Snack Schwarzer Reis 1.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18101,7 +18101,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18170,7 +18170,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18239,7 +18239,7 @@
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18308,7 +18308,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18377,7 +18377,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18446,24 +18446,24 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>7028474</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
         </is>
       </c>
       <c r="D256" t="n">
@@ -18474,17 +18474,17 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>3.30/100g</t>
+          <t>2.33/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18494,7 +18494,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18504,22 +18504,22 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Le Pain des fleurs Bio Quinoa 4.95 Schweizer Franken</t>
+          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18592,24 +18592,24 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>7028474</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Le Pain des fleurs Bio Quinoa</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/le-pain-des-fleurs-bio-quinoa/p/7028474</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -18620,17 +18620,17 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Le Pain des fleurs</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>2.33/100g</t>
+          <t>3.30/100g</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -18650,22 +18650,22 @@
       </c>
       <c r="L258" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 4.20 Schweizer Franken</t>
+          <t>Le Pain des fleurs Bio Quinoa 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18734,7 +18734,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18803,7 +18803,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18876,7 +18876,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -18945,7 +18945,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19014,7 +19014,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19083,45 +19083,43 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>6313852</t>
+          <t>6834497</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits</t>
+          <t>Quicook Blätterteig</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>8</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr"/>
       <c r="E265" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Eclair</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I265" t="inlineStr">
@@ -19131,7 +19129,7 @@
       </c>
       <c r="J265" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K265" t="inlineStr">
@@ -19141,54 +19139,60 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N265" t="inlineStr"/>
+          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>6834497</t>
+          <t>6313852</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig</t>
+          <t>Roland Petite Pause Guezli Fruits</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/quicook-blaetterteig/p/6834497</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-guezli-fruits/p/6313852</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>8</v>
+      </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Eclair</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -19198,7 +19202,7 @@
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K266" t="inlineStr">
@@ -19208,22 +19212,18 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
         <is>
-          <t>Quicook Blätterteig 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Guezli Fruits 2.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr"/>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19292,7 +19292,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19365,7 +19365,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19434,7 +19434,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19503,7 +19503,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19572,7 +19572,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19645,7 +19645,7 @@
       </c>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19712,7 +19712,7 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19779,7 +19779,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19848,7 +19848,7 @@
       <c r="N275" t="inlineStr"/>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19921,7 +19921,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -19990,7 +19990,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20059,7 +20059,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20132,7 +20132,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20199,7 +20199,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20268,7 +20268,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20341,45 +20341,43 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr"/>
       <c r="E283" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -20389,7 +20387,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -20404,49 +20402,51 @@
       </c>
       <c r="M283" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D284" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -20456,7 +20456,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -20471,13 +20471,13 @@
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20546,7 +20546,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20615,7 +20615,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20684,7 +20684,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20753,7 +20753,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20822,7 +20822,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20891,7 +20891,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -20960,7 +20960,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21029,45 +21029,45 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D293" t="n">
         <v>3</v>
       </c>
       <c r="E293" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -21077,7 +21077,7 @@
       </c>
       <c r="J293" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K293" t="inlineStr">
@@ -21087,60 +21087,60 @@
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M293" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+          <t>Bauckhof Brownies Backmischung 30% ab 2 Aktion 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N293" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
         </is>
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D294" t="n">
         <v>3</v>
       </c>
       <c r="E294" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -21150,7 +21150,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -21160,22 +21160,22 @@
       </c>
       <c r="L294" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M294" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 30% ab 2 Aktion 4.50 Schweizer Franken</t>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N294" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21244,7 +21244,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21313,7 +21313,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21384,7 +21384,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21457,7 +21457,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21526,7 +21526,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21595,7 +21595,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21664,28 +21664,28 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>6630295</t>
+          <t>6558121</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco</t>
+          <t>Country Cracker Dinkel</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E302" t="n">
         <v>5</v>
@@ -21697,12 +21697,12 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>1.73/100g</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -21712,7 +21712,7 @@
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="K302" t="inlineStr">
@@ -21722,39 +21722,39 @@
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M302" t="inlineStr">
         <is>
-          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
+          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N302" t="inlineStr"/>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>6558121</t>
+          <t>6630295</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel</t>
+          <t>Country Cracker Banane-Choco</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/country-cracker-dinkel/p/6558121</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/country-cracker-banane-choco/p/6630295</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E303" t="n">
         <v>5</v>
@@ -21766,12 +21766,12 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>1.73/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -21781,7 +21781,7 @@
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K303" t="inlineStr">
@@ -21791,18 +21791,18 @@
       </c>
       <c r="L303" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M303" t="inlineStr">
         <is>
-          <t>Country Cracker Dinkel 3.95 Schweizer Franken</t>
+          <t>Country Cracker Banane-Choco 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -21944,7 +21944,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22017,7 +22017,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22090,7 +22090,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22163,28 +22163,28 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>6533663</t>
+          <t>6659615</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers</t>
+          <t>Country Cracker Karotte</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E309" t="n">
         <v>5</v>
@@ -22196,12 +22196,12 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>5.50/100g</t>
+          <t>1.64/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22211,7 +22211,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22221,39 +22221,39 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>6659615</t>
+          <t>6533663</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte</t>
+          <t>Fine Food Sesame Rice Crackers</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-karotte/p/6659615</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/fine-food-sesame-rice-crackers/p/6533663</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E310" t="n">
         <v>5</v>
@@ -22265,12 +22265,12 @@
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>1.64/100g</t>
+          <t>5.50/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22280,7 +22280,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22290,18 +22290,18 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Country Cracker Karotte 3.75 Schweizer Franken</t>
+          <t>Fine Food Sesame Rice Crackers - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22370,45 +22370,45 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6284830</t>
+          <t>6637490</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt</t>
+          <t>Suter Pâté vaudois</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E312" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Suter</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>0.98/100g</t>
+          <t>3.59/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22418,7 +22418,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.59</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22428,12 +22428,12 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
+          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr">
@@ -22443,45 +22443,45 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>6637490</t>
+          <t>6284830</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois</t>
+          <t>Leisi Kuchenteig eckig ausgewallt</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/suter-pate-vaudois/p/6637490</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-eckig-ausgewallt/p/6284830</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E313" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>Suter</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>3.59/100g</t>
+          <t>0.98/100g</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -22491,7 +22491,7 @@
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="K313" t="inlineStr">
@@ -22501,12 +22501,12 @@
       </c>
       <c r="L313" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M313" t="inlineStr">
         <is>
-          <t>Suter Pâté vaudois 3.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig eckig ausgewallt 20% ab 2 Aktion 5.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N313" t="inlineStr">
@@ -22516,7 +22516,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22585,7 +22585,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22788,7 +22788,7 @@
       <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -22861,45 +22861,45 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>6472919</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
         </is>
       </c>
       <c r="D319" t="n">
         <v>2</v>
       </c>
       <c r="E319" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>2.17/100g</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -22909,7 +22909,7 @@
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="K319" t="inlineStr">
@@ -22919,42 +22919,46 @@
       </c>
       <c r="L319" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M319" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N319" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 21% Aktion 4.95 Schweizer Franken statt 6.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E320" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F320" t="inlineStr">
         <is>
@@ -22993,51 +22997,51 @@
       </c>
       <c r="M320" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E321" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -23047,7 +23051,7 @@
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K321" t="inlineStr">
@@ -23057,56 +23061,56 @@
       </c>
       <c r="L321" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M321" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>6472919</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-herzbiber-3x76g/p/6472919</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E322" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>2.17/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -23116,7 +23120,7 @@
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K322" t="inlineStr">
@@ -23131,17 +23135,13 @@
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Herzbiber 3x76g 21% Aktion 4.95 Schweizer Franken statt 6.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N322" t="inlineStr">
-        <is>
-          <t>['vegetarian']</t>
-        </is>
-      </c>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23210,7 +23210,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23352,7 +23352,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23421,7 +23421,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23488,7 +23488,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
@@ -23561,7 +23561,7 @@
       </c>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-16 12:57:03</t>
+          <t>2023-02-16 20:49:25</t>
         </is>
       </c>
     </row>
